--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Oxt-Avpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Oxt-Avpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Oxt</t>
+  </si>
+  <si>
+    <t>Avpr2</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Oxt</t>
-  </si>
-  <si>
-    <t>Avpr2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -543,46 +543,46 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.6055695</v>
+        <v>0.1388385</v>
       </c>
       <c r="H2">
-        <v>1.211139</v>
+        <v>0.277677</v>
       </c>
       <c r="I2">
-        <v>0.2801432244230949</v>
+        <v>0.113840447003231</v>
       </c>
       <c r="J2">
-        <v>0.2100384425087053</v>
+        <v>0.0815056876720435</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.02490933333333334</v>
+        <v>0.1811646666666666</v>
       </c>
       <c r="N2">
-        <v>0.074728</v>
+        <v>0.5434939999999999</v>
       </c>
       <c r="O2">
-        <v>0.2004866754486455</v>
+        <v>0.3599820106359796</v>
       </c>
       <c r="P2">
-        <v>0.2004866754486455</v>
+        <v>0.3599820106359796</v>
       </c>
       <c r="Q2">
-        <v>0.015084332532</v>
+        <v>0.025152630573</v>
       </c>
       <c r="R2">
-        <v>0.090505995192</v>
+        <v>0.150915783438</v>
       </c>
       <c r="S2">
-        <v>0.0561649837140501</v>
+        <v>0.04098051300392178</v>
       </c>
       <c r="T2">
-        <v>0.0421099090549818</v>
+        <v>0.0293405813264504</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.6055695</v>
+        <v>0.1388385</v>
       </c>
       <c r="H3">
-        <v>1.211139</v>
+        <v>0.277677</v>
       </c>
       <c r="I3">
-        <v>0.2801432244230949</v>
+        <v>0.113840447003231</v>
       </c>
       <c r="J3">
-        <v>0.2100384425087053</v>
+        <v>0.0815056876720435</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,60 +623,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.09933500000000001</v>
+        <v>0.234272</v>
       </c>
       <c r="N3">
-        <v>0.298005</v>
+        <v>0.702816</v>
       </c>
       <c r="O3">
-        <v>0.7995133245513544</v>
+        <v>0.4655085737600355</v>
       </c>
       <c r="P3">
-        <v>0.7995133245513544</v>
+        <v>0.4655085737600355</v>
       </c>
       <c r="Q3">
-        <v>0.0601542462825</v>
+        <v>0.032525973072</v>
       </c>
       <c r="R3">
-        <v>0.360925477695</v>
+        <v>0.195155838432</v>
       </c>
       <c r="S3">
-        <v>0.2239782407090448</v>
+        <v>0.05299370412067896</v>
       </c>
       <c r="T3">
-        <v>0.1679285334537235</v>
+        <v>0.03794159642154387</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.3578333333333334</v>
+        <v>0.1388385</v>
       </c>
       <c r="H4">
-        <v>1.0735</v>
+        <v>0.277677</v>
       </c>
       <c r="I4">
-        <v>0.1655377026188805</v>
+        <v>0.113840447003231</v>
       </c>
       <c r="J4">
-        <v>0.1861687783426141</v>
+        <v>0.0815056876720435</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02490933333333334</v>
+        <v>0.08782366666666667</v>
       </c>
       <c r="N4">
-        <v>0.074728</v>
+        <v>0.263471</v>
       </c>
       <c r="O4">
-        <v>0.2004866754486455</v>
+        <v>0.174509415603985</v>
       </c>
       <c r="P4">
-        <v>0.2004866754486455</v>
+        <v>0.174509415603985</v>
       </c>
       <c r="Q4">
-        <v>0.00891338977777778</v>
+        <v>0.0121933061445</v>
       </c>
       <c r="R4">
-        <v>0.08022050800000001</v>
+        <v>0.07315983686700001</v>
       </c>
       <c r="S4">
-        <v>0.0331881036594659</v>
+        <v>0.01986622987863026</v>
       </c>
       <c r="T4">
-        <v>0.0373243594422465</v>
+        <v>0.01422350992404923</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,10 +735,10 @@
         <v>1.0735</v>
       </c>
       <c r="I5">
-        <v>0.1655377026188805</v>
+        <v>0.2934049749840486</v>
       </c>
       <c r="J5">
-        <v>0.1861687783426141</v>
+        <v>0.3151011992924826</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,163 +747,163 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.09933500000000001</v>
+        <v>0.1811646666666666</v>
       </c>
       <c r="N5">
-        <v>0.298005</v>
+        <v>0.5434939999999999</v>
       </c>
       <c r="O5">
-        <v>0.7995133245513544</v>
+        <v>0.3599820106359796</v>
       </c>
       <c r="P5">
-        <v>0.7995133245513544</v>
+        <v>0.3599820106359796</v>
       </c>
       <c r="Q5">
-        <v>0.03554537416666668</v>
+        <v>0.06482675655555556</v>
       </c>
       <c r="R5">
-        <v>0.3199083675000001</v>
+        <v>0.5834408089999999</v>
       </c>
       <c r="S5">
-        <v>0.1323495989594146</v>
+        <v>0.1056205128253571</v>
       </c>
       <c r="T5">
-        <v>0.1488444189003675</v>
+        <v>0.1134307632751164</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.3578333333333334</v>
+      </c>
+      <c r="H6">
+        <v>1.0735</v>
+      </c>
+      <c r="I6">
+        <v>0.2934049749840486</v>
+      </c>
+      <c r="J6">
+        <v>0.3151011992924826</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.4037876666666667</v>
-      </c>
-      <c r="H6">
-        <v>1.211363</v>
-      </c>
-      <c r="I6">
-        <v>0.1867966912505961</v>
-      </c>
-      <c r="J6">
-        <v>0.210077289091238</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M6">
-        <v>0.02490933333333334</v>
+        <v>0.234272</v>
       </c>
       <c r="N6">
-        <v>0.074728</v>
+        <v>0.702816</v>
       </c>
       <c r="O6">
-        <v>0.2004866754486455</v>
+        <v>0.4655085737600355</v>
       </c>
       <c r="P6">
-        <v>0.2004866754486455</v>
+        <v>0.4655085737600355</v>
       </c>
       <c r="Q6">
-        <v>0.01005808158488889</v>
+        <v>0.08383033066666669</v>
       </c>
       <c r="R6">
-        <v>0.090522734264</v>
+        <v>0.7544729760000001</v>
       </c>
       <c r="S6">
-        <v>0.0374502476136391</v>
+        <v>0.1365825314389233</v>
       </c>
       <c r="T6">
-        <v>0.04211769727716631</v>
+        <v>0.1466823098727203</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4037876666666667</v>
+        <v>0.3578333333333334</v>
       </c>
       <c r="H7">
-        <v>1.211363</v>
+        <v>1.0735</v>
       </c>
       <c r="I7">
-        <v>0.1867966912505961</v>
+        <v>0.2934049749840486</v>
       </c>
       <c r="J7">
-        <v>0.210077289091238</v>
+        <v>0.3151011992924826</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.09933500000000001</v>
+        <v>0.08782366666666667</v>
       </c>
       <c r="N7">
-        <v>0.298005</v>
+        <v>0.263471</v>
       </c>
       <c r="O7">
-        <v>0.7995133245513544</v>
+        <v>0.174509415603985</v>
       </c>
       <c r="P7">
-        <v>0.7995133245513544</v>
+        <v>0.174509415603985</v>
       </c>
       <c r="Q7">
-        <v>0.04011024786833334</v>
+        <v>0.0314262353888889</v>
       </c>
       <c r="R7">
-        <v>0.360992230815</v>
+        <v>0.2828361185000001</v>
       </c>
       <c r="S7">
-        <v>0.149346443636957</v>
+        <v>0.05120193071976815</v>
       </c>
       <c r="T7">
-        <v>0.1679595918140716</v>
+        <v>0.05498812614464595</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -912,81 +912,81 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.113085</v>
+        <v>0.04659966666666667</v>
       </c>
       <c r="H8">
-        <v>0.22617</v>
+        <v>0.139799</v>
       </c>
       <c r="I8">
-        <v>0.05231438593569473</v>
+        <v>0.03820933590851887</v>
       </c>
       <c r="J8">
-        <v>0.03922290880088403</v>
+        <v>0.04103477648802029</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.02490933333333334</v>
+        <v>0.1811646666666666</v>
       </c>
       <c r="N8">
-        <v>0.074728</v>
+        <v>0.5434939999999999</v>
       </c>
       <c r="O8">
-        <v>0.2004866754486455</v>
+        <v>0.3599820106359796</v>
       </c>
       <c r="P8">
-        <v>0.2004866754486455</v>
+        <v>0.3599820106359796</v>
       </c>
       <c r="Q8">
-        <v>0.00281687196</v>
+        <v>0.008442213078444444</v>
       </c>
       <c r="R8">
-        <v>0.01690123176</v>
+        <v>0.07597991770599999</v>
       </c>
       <c r="S8">
-        <v>0.01048833731438482</v>
+        <v>0.01375467356541416</v>
       </c>
       <c r="T8">
-        <v>0.007863670586914661</v>
+        <v>0.01477178134615557</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.113085</v>
+        <v>0.04659966666666667</v>
       </c>
       <c r="H9">
-        <v>0.22617</v>
+        <v>0.139799</v>
       </c>
       <c r="I9">
-        <v>0.05231438593569473</v>
+        <v>0.03820933590851887</v>
       </c>
       <c r="J9">
-        <v>0.03922290880088403</v>
+        <v>0.04103477648802029</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,60 +995,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.09933500000000001</v>
+        <v>0.234272</v>
       </c>
       <c r="N9">
-        <v>0.298005</v>
+        <v>0.702816</v>
       </c>
       <c r="O9">
-        <v>0.7995133245513544</v>
+        <v>0.4655085737600355</v>
       </c>
       <c r="P9">
-        <v>0.7995133245513544</v>
+        <v>0.4655085737600355</v>
       </c>
       <c r="Q9">
-        <v>0.011233298475</v>
+        <v>0.01091699710933334</v>
       </c>
       <c r="R9">
-        <v>0.06739979085</v>
+        <v>0.098252973984</v>
       </c>
       <c r="S9">
-        <v>0.04182604862130991</v>
+        <v>0.01778677346309273</v>
       </c>
       <c r="T9">
-        <v>0.03135923821396937</v>
+        <v>0.01910204027750016</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.3488446666666666</v>
+        <v>0.04659966666666667</v>
       </c>
       <c r="H10">
-        <v>1.046534</v>
+        <v>0.139799</v>
       </c>
       <c r="I10">
-        <v>0.1613794448742873</v>
+        <v>0.03820933590851887</v>
       </c>
       <c r="J10">
-        <v>0.1814922741257654</v>
+        <v>0.04103477648802029</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,60 +1057,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.02490933333333334</v>
+        <v>0.08782366666666667</v>
       </c>
       <c r="N10">
-        <v>0.074728</v>
+        <v>0.263471</v>
       </c>
       <c r="O10">
-        <v>0.2004866754486455</v>
+        <v>0.174509415603985</v>
       </c>
       <c r="P10">
-        <v>0.2004866754486455</v>
+        <v>0.174509415603985</v>
       </c>
       <c r="Q10">
-        <v>0.008689488083555555</v>
+        <v>0.004092553592111112</v>
       </c>
       <c r="R10">
-        <v>0.07820539275199999</v>
+        <v>0.036832982329</v>
       </c>
       <c r="S10">
-        <v>0.03235442838859383</v>
+        <v>0.006667888880011986</v>
       </c>
       <c r="T10">
-        <v>0.03638678265908894</v>
+        <v>0.007160954864364563</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.3488446666666666</v>
+        <v>0.113085</v>
       </c>
       <c r="H11">
-        <v>1.046534</v>
+        <v>0.22617</v>
       </c>
       <c r="I11">
-        <v>0.1613794448742873</v>
+        <v>0.0927238982656855</v>
       </c>
       <c r="J11">
-        <v>0.1814922741257654</v>
+        <v>0.0663869941723156</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,152 +1119,338 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.09933500000000001</v>
+        <v>0.1811646666666666</v>
       </c>
       <c r="N11">
-        <v>0.298005</v>
+        <v>0.5434939999999999</v>
       </c>
       <c r="O11">
-        <v>0.7995133245513544</v>
+        <v>0.3599820106359796</v>
       </c>
       <c r="P11">
-        <v>0.7995133245513544</v>
+        <v>0.3599820106359796</v>
       </c>
       <c r="Q11">
-        <v>0.03465248496333333</v>
+        <v>0.02048700633</v>
       </c>
       <c r="R11">
-        <v>0.31187236467</v>
+        <v>0.12292203798</v>
       </c>
       <c r="S11">
-        <v>0.1290250164856935</v>
+        <v>0.03337893533168749</v>
       </c>
       <c r="T11">
-        <v>0.1451054914666765</v>
+        <v>0.02389812364222923</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.113085</v>
+      </c>
+      <c r="H12">
+        <v>0.22617</v>
+      </c>
+      <c r="I12">
+        <v>0.0927238982656855</v>
+      </c>
+      <c r="J12">
+        <v>0.0663869941723156</v>
+      </c>
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="L12">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G12">
-        <v>0.3325223333333334</v>
-      </c>
-      <c r="H12">
-        <v>0.9975670000000001</v>
-      </c>
-      <c r="I12">
-        <v>0.1538285508974464</v>
-      </c>
-      <c r="J12">
-        <v>0.1730003071307932</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M12">
-        <v>0.02490933333333334</v>
+        <v>0.234272</v>
       </c>
       <c r="N12">
-        <v>0.074728</v>
+        <v>0.702816</v>
       </c>
       <c r="O12">
-        <v>0.2004866754486455</v>
+        <v>0.4655085737600355</v>
       </c>
       <c r="P12">
-        <v>0.2004866754486455</v>
+        <v>0.4655085737600355</v>
       </c>
       <c r="Q12">
-        <v>0.00828290964177778</v>
+        <v>0.02649264912</v>
       </c>
       <c r="R12">
-        <v>0.07454618677600001</v>
+        <v>0.15895589472</v>
       </c>
       <c r="S12">
-        <v>0.03084057475851179</v>
+        <v>0.04316376963512988</v>
       </c>
       <c r="T12">
-        <v>0.03468425642824733</v>
+        <v>0.03090371497337042</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.113085</v>
+      </c>
+      <c r="H13">
+        <v>0.22617</v>
+      </c>
+      <c r="I13">
+        <v>0.0927238982656855</v>
+      </c>
+      <c r="J13">
+        <v>0.0663869941723156</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.08782366666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.263471</v>
+      </c>
+      <c r="O13">
+        <v>0.174509415603985</v>
+      </c>
+      <c r="P13">
+        <v>0.174509415603985</v>
+      </c>
+      <c r="Q13">
+        <v>0.009931539345000002</v>
+      </c>
+      <c r="R13">
+        <v>0.05958923607</v>
+      </c>
+      <c r="S13">
+        <v>0.01618119329886813</v>
+      </c>
+      <c r="T13">
+        <v>0.01158515555671595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.5632320000000001</v>
+      </c>
+      <c r="H14">
+        <v>1.689696</v>
+      </c>
+      <c r="I14">
+        <v>0.461821343838516</v>
+      </c>
+      <c r="J14">
+        <v>0.495971342375138</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1811646666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.5434939999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.3599820106359796</v>
+      </c>
+      <c r="P14">
+        <v>0.3599820106359796</v>
+      </c>
+      <c r="Q14">
+        <v>0.102037737536</v>
+      </c>
+      <c r="R14">
+        <v>0.918339637824</v>
+      </c>
+      <c r="S14">
+        <v>0.1662473759095991</v>
+      </c>
+      <c r="T14">
+        <v>0.178540761046028</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.5632320000000001</v>
+      </c>
+      <c r="H15">
+        <v>1.689696</v>
+      </c>
+      <c r="I15">
+        <v>0.461821343838516</v>
+      </c>
+      <c r="J15">
+        <v>0.495971342375138</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.234272</v>
+      </c>
+      <c r="N15">
+        <v>0.702816</v>
+      </c>
+      <c r="O15">
+        <v>0.4655085737600355</v>
+      </c>
+      <c r="P15">
+        <v>0.4655085737600355</v>
+      </c>
+      <c r="Q15">
+        <v>0.131949487104</v>
+      </c>
+      <c r="R15">
+        <v>1.187545383936</v>
+      </c>
+      <c r="S15">
+        <v>0.2149817951022105</v>
+      </c>
+      <c r="T15">
+        <v>0.2308789122149007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="F16">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.3325223333333334</v>
-      </c>
-      <c r="H13">
-        <v>0.9975670000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.1538285508974464</v>
-      </c>
-      <c r="J13">
-        <v>0.1730003071307932</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.09933500000000001</v>
-      </c>
-      <c r="N13">
-        <v>0.298005</v>
-      </c>
-      <c r="O13">
-        <v>0.7995133245513544</v>
-      </c>
-      <c r="P13">
-        <v>0.7995133245513544</v>
-      </c>
-      <c r="Q13">
-        <v>0.03303110598166667</v>
-      </c>
-      <c r="R13">
-        <v>0.2972799538350001</v>
-      </c>
-      <c r="S13">
-        <v>0.1229879761389346</v>
-      </c>
-      <c r="T13">
-        <v>0.1383160507025458</v>
+      <c r="G16">
+        <v>0.5632320000000001</v>
+      </c>
+      <c r="H16">
+        <v>1.689696</v>
+      </c>
+      <c r="I16">
+        <v>0.461821343838516</v>
+      </c>
+      <c r="J16">
+        <v>0.495971342375138</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.08782366666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.263471</v>
+      </c>
+      <c r="O16">
+        <v>0.174509415603985</v>
+      </c>
+      <c r="P16">
+        <v>0.174509415603985</v>
+      </c>
+      <c r="Q16">
+        <v>0.04946509942400001</v>
+      </c>
+      <c r="R16">
+        <v>0.445185894816</v>
+      </c>
+      <c r="S16">
+        <v>0.08059217282670644</v>
+      </c>
+      <c r="T16">
+        <v>0.08655166911420928</v>
       </c>
     </row>
   </sheetData>
